--- a/内部設計/A5_ファイル構成一覧表.xlsx
+++ b/内部設計/A5_ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F44A4477-1E8F-4205-90C8-5A7037973D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C68C5F0-B604-417B-9BEB-47451D305904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -67,6 +67,563 @@
     <t>担当者</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+  </si>
+  <si>
+    <t>UsersDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemHisDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HWDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HWHisDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewAccountServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemEditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HWEditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HW.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemHis.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HWHis.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HWEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regist.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemEdit.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HWEdit.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AnalysisServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analysis.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analysis.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々木</t>
+    <rPh sb="0" eb="3">
+      <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤本</t>
+    <rPh sb="0" eb="2">
+      <t>サワモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小嶋</t>
+    <rPh sb="0" eb="2">
+      <t>コジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤錆</t>
+    <rPh sb="0" eb="2">
+      <t>アカサビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User関連のデータアクセス用DAO</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemHistory関連のデータアクセス用DAO</t>
+    <rPh sb="11" eb="13">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item関連のデータアクセス用DAO</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Housework関連のデータアクセス用DAO</t>
+    <rPh sb="9" eb="11">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseworkHistory関連のデータアクセス用DAO</t>
+    <rPh sb="16" eb="18">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面用</t>
+    <rPh sb="4" eb="7">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録画面用</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品編集画面用</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事編集画面用</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日用品・家事一覧編集画面用</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析画面用</t>
+    <rPh sb="0" eb="5">
+      <t>ブンセキガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User関連のデータ操作モデル</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item関連のデータ操作モデル</t>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemHistory関連のデータ操作モデル</t>
+    <rPh sb="11" eb="13">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Homework関連のデータ操作モデル</t>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeworkHistory関連のデータ操作モデル</t>
+    <rPh sb="15" eb="17">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面jsp</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面jsp</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通の画面</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンキョウツウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面（カレンダー）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家事編集画面用</t>
+    <rPh sb="0" eb="7">
+      <t>カジヘンシュウガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面用</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用</t>
+    <rPh sb="0" eb="7">
+      <t>シンキトウロクガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面用</t>
+    <rPh sb="3" eb="6">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面・アカウント登録用</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面共通の画面用</t>
+    <rPh sb="0" eb="5">
+      <t>ゼンガメンキョウツウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録・編集画面用</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析画面用</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -106,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,13 +686,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,6 +711,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,17 +1036,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
   </cols>
@@ -499,153 +1076,290 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -653,153 +1367,289 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -807,98 +1657,186 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -906,10 +1844,18 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -917,10 +1863,18 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -928,21 +1882,36 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -950,11 +1919,27 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -972,12 +1957,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1148,6 +2127,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
@@ -1157,23 +2142,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1190,4 +2158,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/内部設計/A5_ファイル構成一覧表.xlsx
+++ b/内部設計/A5_ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C68C5F0-B604-417B-9BEB-47451D305904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF70C414-E335-42EE-9AFC-1E56FFBEC6FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="89">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NewAccountServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HomeServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,46 +146,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ItemHis.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HWHis.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Login.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Common.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Account.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Regist.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemEdit.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HWEdit.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WebContent/WEB-INF/jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,35 +198,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Login.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Common.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Home.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Regist.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>List.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AnalysisServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Analysis.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Analysis.css</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -468,46 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Item関連のデータ操作モデル</t>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemHistory関連のデータ操作モデル</t>
-    <rPh sb="11" eb="13">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Homework関連のデータ操作モデル</t>
-    <rPh sb="8" eb="10">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HomeworkHistory関連のデータ操作モデル</t>
-    <rPh sb="15" eb="17">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン画面jsp</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -625,6 +513,90 @@
     <rPh sb="2" eb="5">
       <t>ガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analysis.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hwEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>analysis.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HW・HWHistory・User関連のデータ操作モデル</t>
+    <rPh sb="17" eb="19">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item・ItemHistory・User関連のデータ操作モデル</t>
+    <rPh sb="21" eb="23">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccountServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -703,7 +675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,13 +685,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G45"/>
+  <dimension ref="B2:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1086,15 +1052,15 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B44" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B42" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1107,10 +1073,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1128,10 +1094,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1149,10 +1115,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1170,10 +1136,10 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1191,10 +1157,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1212,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1230,13 +1196,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1251,13 +1217,13 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1272,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1293,13 +1259,13 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1314,13 +1280,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1335,13 +1301,13 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1355,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1371,16 +1337,16 @@
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1392,16 +1358,16 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1413,16 +1379,16 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1434,16 +1400,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1455,37 +1421,36 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1497,36 +1462,37 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="1">
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1538,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1559,16 +1525,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1580,38 +1546,35 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="1">
@@ -1619,38 +1582,41 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="1">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1">
@@ -1658,19 +1624,19 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1679,19 +1645,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1700,19 +1666,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1721,19 +1687,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1742,19 +1708,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1763,19 +1729,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
@@ -1784,20 +1750,18 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1">
@@ -1805,20 +1769,18 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1">
@@ -1826,16 +1788,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1845,35 +1807,34 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1883,63 +1844,18 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1">
-        <v>41</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1948,15 +1864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2127,21 +2034,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2160,7 +2068,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2175,4 +2083,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>